--- a/rawdata/supplementary_material_Vfinal.xlsx
+++ b/rawdata/supplementary_material_Vfinal.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B128F5-980F-4795-8DF5-0C424C1B9A36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2525AEA-D096-4FC2-8421-178D3183EAC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" tabRatio="859" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5452,12 +5452,6 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5467,11 +5461,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5479,13 +5473,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5509,10 +5509,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5947,10 +5947,10 @@
       <c r="D3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="122" t="s">
+      <c r="E3" s="124" t="s">
         <v>825</v>
       </c>
-      <c r="F3" s="122" t="s">
+      <c r="F3" s="124" t="s">
         <v>557</v>
       </c>
     </row>
@@ -5967,8 +5967,8 @@
       <c r="D4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -6093,10 +6093,10 @@
       <c r="D11" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="122" t="s">
+      <c r="E11" s="124" t="s">
         <v>563</v>
       </c>
-      <c r="F11" s="122" t="s">
+      <c r="F11" s="124" t="s">
         <v>564</v>
       </c>
     </row>
@@ -6113,8 +6113,8 @@
       <c r="D12" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
     </row>
     <row r="13" spans="1:6" ht="232.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
@@ -6129,8 +6129,8 @@
       <c r="D13" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
     </row>
     <row r="14" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
@@ -6255,10 +6255,10 @@
       <c r="D20" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="122" t="s">
+      <c r="E20" s="124" t="s">
         <v>959</v>
       </c>
-      <c r="F20" s="122" t="s">
+      <c r="F20" s="124" t="s">
         <v>958</v>
       </c>
     </row>
@@ -6275,8 +6275,8 @@
       <c r="D21" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="124"/>
     </row>
     <row r="22" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
@@ -7201,10 +7201,10 @@
       <c r="D70" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="122" t="s">
+      <c r="E70" s="124" t="s">
         <v>964</v>
       </c>
-      <c r="F70" s="122" t="s">
+      <c r="F70" s="124" t="s">
         <v>965</v>
       </c>
     </row>
@@ -7221,8 +7221,8 @@
       <c r="D71" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="122"/>
-      <c r="F71" s="122"/>
+      <c r="E71" s="124"/>
+      <c r="F71" s="124"/>
     </row>
     <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="s">
@@ -7507,10 +7507,10 @@
       <c r="D86" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E86" s="119" t="s">
+      <c r="E86" s="117" t="s">
         <v>982</v>
       </c>
-      <c r="F86" s="119" t="s">
+      <c r="F86" s="117" t="s">
         <v>983</v>
       </c>
     </row>
@@ -7527,8 +7527,8 @@
       <c r="D87" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E87" s="119"/>
-      <c r="F87" s="119"/>
+      <c r="E87" s="117"/>
+      <c r="F87" s="117"/>
     </row>
     <row r="88" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="20" t="s">
@@ -7543,8 +7543,8 @@
       <c r="D88" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E88" s="119"/>
-      <c r="F88" s="119"/>
+      <c r="E88" s="117"/>
+      <c r="F88" s="117"/>
     </row>
     <row r="89" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A89" s="20" t="s">
@@ -8029,10 +8029,10 @@
       <c r="D114" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="122" t="s">
+      <c r="E114" s="124" t="s">
         <v>576</v>
       </c>
-      <c r="F114" s="122" t="s">
+      <c r="F114" s="124" t="s">
         <v>288</v>
       </c>
     </row>
@@ -8049,8 +8049,8 @@
       <c r="D115" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="122"/>
-      <c r="F115" s="122"/>
+      <c r="E115" s="124"/>
+      <c r="F115" s="124"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="20" t="s">
@@ -8085,10 +8085,10 @@
       <c r="D117" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E117" s="124" t="s">
+      <c r="E117" s="122" t="s">
         <v>986</v>
       </c>
-      <c r="F117" s="124" t="s">
+      <c r="F117" s="122" t="s">
         <v>581</v>
       </c>
     </row>
@@ -8105,8 +8105,8 @@
       <c r="D118" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E118" s="125"/>
-      <c r="F118" s="125"/>
+      <c r="E118" s="123"/>
+      <c r="F118" s="123"/>
     </row>
     <row r="119" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A119" s="20" t="s">
@@ -8809,10 +8809,10 @@
       <c r="D156" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E156" s="122" t="s">
+      <c r="E156" s="124" t="s">
         <v>987</v>
       </c>
-      <c r="F156" s="122" t="s">
+      <c r="F156" s="124" t="s">
         <v>988</v>
       </c>
     </row>
@@ -8829,8 +8829,8 @@
       <c r="D157" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E157" s="122"/>
-      <c r="F157" s="122"/>
+      <c r="E157" s="124"/>
+      <c r="F157" s="124"/>
     </row>
     <row r="158" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A158" s="20" t="s">
@@ -9034,25 +9034,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="E86:E88"/>
-    <mergeCell ref="F86:F88"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="A82:F82"/>
     <mergeCell ref="E156:E157"/>
     <mergeCell ref="F156:F157"/>
     <mergeCell ref="A91:F91"/>
@@ -9068,6 +9049,25 @@
     <mergeCell ref="A155:F155"/>
     <mergeCell ref="E117:E118"/>
     <mergeCell ref="F117:F118"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="F86:F88"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10519,10 +10519,10 @@
       <c r="D76" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E76" s="124" t="s">
+      <c r="E76" s="122" t="s">
         <v>605</v>
       </c>
-      <c r="F76" s="124" t="s">
+      <c r="F76" s="122" t="s">
         <v>606</v>
       </c>
     </row>
@@ -10539,8 +10539,8 @@
       <c r="D77" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E77" s="125"/>
-      <c r="F77" s="125"/>
+      <c r="E77" s="123"/>
+      <c r="F77" s="123"/>
     </row>
     <row r="78" spans="1:6" ht="195" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="20" t="s">
@@ -12252,6 +12252,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A131:F131"/>
     <mergeCell ref="A91:F91"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A10:F10"/>
@@ -12264,14 +12272,6 @@
     <mergeCell ref="A82:F82"/>
     <mergeCell ref="E76:E77"/>
     <mergeCell ref="F76:F77"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A131:F131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12484,10 +12484,10 @@
       <c r="D11" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="124" t="s">
+      <c r="E11" s="122" t="s">
         <v>630</v>
       </c>
-      <c r="F11" s="124" t="s">
+      <c r="F11" s="122" t="s">
         <v>835</v>
       </c>
     </row>
@@ -12504,8 +12504,8 @@
       <c r="D12" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
     </row>
     <row r="13" spans="1:6" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
@@ -12648,10 +12648,10 @@
       <c r="D20" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="124" t="s">
+      <c r="E20" s="122" t="s">
         <v>631</v>
       </c>
-      <c r="F20" s="124" t="s">
+      <c r="F20" s="122" t="s">
         <v>632</v>
       </c>
     </row>
@@ -12668,8 +12668,8 @@
       <c r="D21" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="125"/>
-      <c r="F21" s="125"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
     </row>
     <row r="22" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
@@ -13594,10 +13594,10 @@
       <c r="D70" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="124" t="s">
+      <c r="E70" s="122" t="s">
         <v>639</v>
       </c>
-      <c r="F70" s="124" t="s">
+      <c r="F70" s="122" t="s">
         <v>640</v>
       </c>
     </row>
@@ -13614,8 +13614,8 @@
       <c r="D71" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="125"/>
-      <c r="F71" s="125"/>
+      <c r="E71" s="123"/>
+      <c r="F71" s="123"/>
     </row>
     <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="s">
@@ -14820,10 +14820,10 @@
       <c r="D135" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E135" s="124" t="s">
+      <c r="E135" s="122" t="s">
         <v>648</v>
       </c>
-      <c r="F135" s="124" t="s">
+      <c r="F135" s="122" t="s">
         <v>641</v>
       </c>
     </row>
@@ -14840,8 +14840,8 @@
       <c r="D136" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E136" s="125"/>
-      <c r="F136" s="125"/>
+      <c r="E136" s="123"/>
+      <c r="F136" s="123"/>
     </row>
     <row r="137" spans="1:6" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A137" s="20" t="s">
@@ -15450,11 +15450,13 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A19:F19"/>
     <mergeCell ref="E126:E127"/>
     <mergeCell ref="F126:F127"/>
     <mergeCell ref="A33:F33"/>
@@ -15469,13 +15471,11 @@
     <mergeCell ref="A102:F102"/>
     <mergeCell ref="A113:F113"/>
     <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A155:F155"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15517,14 +15517,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
     </row>
     <row r="3" spans="1:6" ht="67.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
@@ -15539,10 +15539,10 @@
       <c r="D3" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="124" t="s">
+      <c r="E3" s="122" t="s">
         <v>924</v>
       </c>
-      <c r="F3" s="124" t="s">
+      <c r="F3" s="122" t="s">
         <v>925</v>
       </c>
     </row>
@@ -15559,8 +15559,8 @@
       <c r="D4" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -15631,10 +15631,10 @@
       <c r="D8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="124" t="s">
+      <c r="E8" s="122" t="s">
         <v>1015</v>
       </c>
-      <c r="F8" s="124" t="s">
+      <c r="F8" s="122" t="s">
         <v>1016</v>
       </c>
     </row>
@@ -15651,8 +15651,8 @@
       <c r="D9" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="116" t="s">
@@ -15680,7 +15680,7 @@
       <c r="E11" s="135" t="s">
         <v>1069</v>
       </c>
-      <c r="F11" s="120" t="s">
+      <c r="F11" s="118" t="s">
         <v>1068</v>
       </c>
     </row>
@@ -15697,7 +15697,7 @@
       <c r="D12" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="137"/>
+      <c r="E12" s="136"/>
       <c r="F12" s="129"/>
     </row>
     <row r="13" spans="1:6" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -15713,8 +15713,8 @@
       <c r="D13" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="136"/>
-      <c r="F13" s="121"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="119"/>
     </row>
     <row r="14" spans="1:6" ht="234" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
@@ -15839,10 +15839,10 @@
       <c r="D20" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="120" t="s">
+      <c r="E20" s="118" t="s">
         <v>928</v>
       </c>
-      <c r="F20" s="120" t="s">
+      <c r="F20" s="118" t="s">
         <v>913</v>
       </c>
     </row>
@@ -15859,8 +15859,8 @@
       <c r="D21" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
     </row>
     <row r="22" spans="1:6" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
@@ -16671,10 +16671,10 @@
       <c r="D64" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E64" s="120" t="s">
+      <c r="E64" s="118" t="s">
         <v>934</v>
       </c>
-      <c r="F64" s="124" t="s">
+      <c r="F64" s="122" t="s">
         <v>935</v>
       </c>
     </row>
@@ -16691,8 +16691,8 @@
       <c r="D65" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="121"/>
-      <c r="F65" s="125"/>
+      <c r="E65" s="119"/>
+      <c r="F65" s="123"/>
     </row>
     <row r="66" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A66" s="20" t="s">
@@ -16777,10 +16777,10 @@
       <c r="D70" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="124" t="s">
+      <c r="E70" s="122" t="s">
         <v>936</v>
       </c>
-      <c r="F70" s="124" t="s">
+      <c r="F70" s="122" t="s">
         <v>936</v>
       </c>
     </row>
@@ -16797,8 +16797,8 @@
       <c r="D71" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="125"/>
-      <c r="F71" s="125"/>
+      <c r="E71" s="123"/>
+      <c r="F71" s="123"/>
     </row>
     <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="s">
@@ -16885,10 +16885,10 @@
       <c r="D76" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E76" s="120" t="s">
+      <c r="E76" s="118" t="s">
         <v>940</v>
       </c>
-      <c r="F76" s="124" t="s">
+      <c r="F76" s="122" t="s">
         <v>941</v>
       </c>
     </row>
@@ -16905,8 +16905,8 @@
       <c r="D77" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E77" s="121"/>
-      <c r="F77" s="125"/>
+      <c r="E77" s="119"/>
+      <c r="F77" s="123"/>
     </row>
     <row r="78" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A78" s="20" t="s">
@@ -17057,10 +17057,10 @@
       <c r="D86" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E86" s="127" t="s">
+      <c r="E86" s="128" t="s">
         <v>1034</v>
       </c>
-      <c r="F86" s="119" t="s">
+      <c r="F86" s="117" t="s">
         <v>1040</v>
       </c>
     </row>
@@ -17077,8 +17077,8 @@
       <c r="D87" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E87" s="127"/>
-      <c r="F87" s="119"/>
+      <c r="E87" s="128"/>
+      <c r="F87" s="117"/>
     </row>
     <row r="88" spans="1:6" ht="158.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="20" t="s">
@@ -17093,8 +17093,8 @@
       <c r="D88" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E88" s="127"/>
-      <c r="F88" s="119"/>
+      <c r="E88" s="128"/>
+      <c r="F88" s="117"/>
     </row>
     <row r="89" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A89" s="20" t="s">
@@ -17579,10 +17579,10 @@
       <c r="D114" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="122" t="s">
+      <c r="E114" s="124" t="s">
         <v>942</v>
       </c>
-      <c r="F114" s="122" t="s">
+      <c r="F114" s="124" t="s">
         <v>288</v>
       </c>
     </row>
@@ -17599,8 +17599,8 @@
       <c r="D115" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="122"/>
-      <c r="F115" s="122"/>
+      <c r="E115" s="124"/>
+      <c r="F115" s="124"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="20" t="s">
@@ -17635,10 +17635,10 @@
       <c r="D117" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E117" s="124" t="s">
+      <c r="E117" s="122" t="s">
         <v>986</v>
       </c>
-      <c r="F117" s="124" t="s">
+      <c r="F117" s="122" t="s">
         <v>581</v>
       </c>
     </row>
@@ -17655,8 +17655,8 @@
       <c r="D118" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E118" s="125"/>
-      <c r="F118" s="125"/>
+      <c r="E118" s="123"/>
+      <c r="F118" s="123"/>
     </row>
     <row r="119" spans="1:6" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="20" t="s">
@@ -17799,10 +17799,10 @@
       <c r="D126" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="120" t="s">
+      <c r="E126" s="118" t="s">
         <v>946</v>
       </c>
-      <c r="F126" s="120" t="s">
+      <c r="F126" s="118" t="s">
         <v>906</v>
       </c>
     </row>
@@ -17835,8 +17835,8 @@
       <c r="D128" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E128" s="121"/>
-      <c r="F128" s="121"/>
+      <c r="E128" s="119"/>
+      <c r="F128" s="119"/>
     </row>
     <row r="129" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A129" s="20" t="s">
@@ -17921,8 +17921,8 @@
       <c r="D133" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E133" s="136"/>
-      <c r="F133" s="136"/>
+      <c r="E133" s="137"/>
+      <c r="F133" s="137"/>
     </row>
     <row r="134" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A134" s="20" t="s">
@@ -18345,10 +18345,10 @@
       <c r="D156" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E156" s="120" t="s">
+      <c r="E156" s="118" t="s">
         <v>1046</v>
       </c>
-      <c r="F156" s="124" t="s">
+      <c r="F156" s="122" t="s">
         <v>989</v>
       </c>
     </row>
@@ -18365,8 +18365,8 @@
       <c r="D157" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E157" s="121"/>
-      <c r="F157" s="125"/>
+      <c r="E157" s="119"/>
+      <c r="F157" s="123"/>
     </row>
     <row r="158" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="20" t="s">
@@ -18542,19 +18542,20 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="F156:F157"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="E126:E128"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="F126:F128"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="F114:F115"/>
     <mergeCell ref="A113:F113"/>
     <mergeCell ref="A54:F54"/>
     <mergeCell ref="A63:F63"/>
@@ -18570,20 +18571,19 @@
     <mergeCell ref="F86:F88"/>
     <mergeCell ref="E70:E71"/>
     <mergeCell ref="F70:F71"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="F156:F157"/>
-    <mergeCell ref="E156:E157"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="E126:E128"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="F126:F128"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18626,14 +18626,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
     </row>
     <row r="3" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
@@ -20986,10 +20986,10 @@
       <c r="D126" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="119" t="s">
+      <c r="E126" s="117" t="s">
         <v>429</v>
       </c>
-      <c r="F126" s="120" t="s">
+      <c r="F126" s="118" t="s">
         <v>430</v>
       </c>
     </row>
@@ -21006,8 +21006,8 @@
       <c r="D127" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="119"/>
-      <c r="F127" s="121"/>
+      <c r="E127" s="117"/>
+      <c r="F127" s="119"/>
     </row>
     <row r="128" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A128" s="20" t="s">
@@ -21781,6 +21781,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
     <mergeCell ref="A155:F155"/>
     <mergeCell ref="A63:F63"/>
     <mergeCell ref="A69:F69"/>
@@ -21793,12 +21799,6 @@
     <mergeCell ref="F126:F127"/>
     <mergeCell ref="A131:F131"/>
     <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21862,10 +21862,10 @@
       <c r="D3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="119" t="s">
+      <c r="E3" s="117" t="s">
         <v>822</v>
       </c>
-      <c r="F3" s="119" t="s">
+      <c r="F3" s="117" t="s">
         <v>823</v>
       </c>
     </row>
@@ -21882,8 +21882,8 @@
       <c r="D4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
     </row>
     <row r="5" spans="1:6" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -22008,10 +22008,10 @@
       <c r="D11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="124" t="s">
+      <c r="E11" s="122" t="s">
         <v>1066</v>
       </c>
-      <c r="F11" s="122" t="s">
+      <c r="F11" s="124" t="s">
         <v>831</v>
       </c>
     </row>
@@ -22028,8 +22028,8 @@
       <c r="D12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
     </row>
     <row r="13" spans="1:6" ht="130.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
@@ -22044,8 +22044,8 @@
       <c r="D13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
     </row>
     <row r="14" spans="1:6" ht="228.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
@@ -23112,10 +23112,10 @@
       <c r="D70" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="119" t="s">
+      <c r="E70" s="117" t="s">
         <v>183</v>
       </c>
-      <c r="F70" s="119" t="s">
+      <c r="F70" s="117" t="s">
         <v>184</v>
       </c>
     </row>
@@ -23132,8 +23132,8 @@
       <c r="D71" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="119"/>
-      <c r="F71" s="119"/>
+      <c r="E71" s="117"/>
+      <c r="F71" s="117"/>
     </row>
     <row r="72" spans="1:6" ht="88.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="s">
@@ -23948,10 +23948,10 @@
       <c r="D114" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="122" t="s">
+      <c r="E114" s="124" t="s">
         <v>287</v>
       </c>
-      <c r="F114" s="122" t="s">
+      <c r="F114" s="124" t="s">
         <v>288</v>
       </c>
     </row>
@@ -23968,8 +23968,8 @@
       <c r="D115" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="122"/>
-      <c r="F115" s="122"/>
+      <c r="E115" s="124"/>
+      <c r="F115" s="124"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="20" t="s">
@@ -24174,10 +24174,10 @@
       <c r="D126" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="122" t="s">
+      <c r="E126" s="124" t="s">
         <v>313</v>
       </c>
-      <c r="F126" s="122" t="s">
+      <c r="F126" s="124" t="s">
         <v>314</v>
       </c>
     </row>
@@ -24194,8 +24194,8 @@
       <c r="D127" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="122"/>
-      <c r="F127" s="122"/>
+      <c r="E127" s="124"/>
+      <c r="F127" s="124"/>
     </row>
     <row r="128" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="20" t="s">
@@ -24280,10 +24280,10 @@
       <c r="D132" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E132" s="122" t="s">
+      <c r="E132" s="124" t="s">
         <v>326</v>
       </c>
-      <c r="F132" s="122" t="s">
+      <c r="F132" s="124" t="s">
         <v>327</v>
       </c>
     </row>
@@ -24300,8 +24300,8 @@
       <c r="D133" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E133" s="122"/>
-      <c r="F133" s="122"/>
+      <c r="E133" s="124"/>
+      <c r="F133" s="124"/>
     </row>
     <row r="134" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A134" s="20" t="s">
@@ -24666,10 +24666,10 @@
       <c r="D152" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E152" s="123" t="s">
+      <c r="E152" s="126" t="s">
         <v>371</v>
       </c>
-      <c r="F152" s="123" t="s">
+      <c r="F152" s="126" t="s">
         <v>372</v>
       </c>
     </row>
@@ -24686,8 +24686,8 @@
       <c r="D153" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E153" s="123"/>
-      <c r="F153" s="123"/>
+      <c r="E153" s="126"/>
+      <c r="F153" s="126"/>
     </row>
     <row r="154" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="20" t="s">
@@ -24732,10 +24732,10 @@
       <c r="D156" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E156" s="124" t="s">
+      <c r="E156" s="122" t="s">
         <v>1078</v>
       </c>
-      <c r="F156" s="124" t="s">
+      <c r="F156" s="122" t="s">
         <v>381</v>
       </c>
     </row>
@@ -24752,8 +24752,8 @@
       <c r="D157" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E157" s="125"/>
-      <c r="F157" s="125"/>
+      <c r="E157" s="123"/>
+      <c r="F157" s="123"/>
     </row>
     <row r="158" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A158" s="20" t="s">
@@ -24957,6 +24957,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="F152:F153"/>
     <mergeCell ref="A155:F155"/>
     <mergeCell ref="F156:F157"/>
     <mergeCell ref="E156:E157"/>
@@ -24973,22 +24989,6 @@
     <mergeCell ref="E126:E127"/>
     <mergeCell ref="A125:F125"/>
     <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="A82:F82"/>
   </mergeCells>
   <conditionalFormatting sqref="E109">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
@@ -25061,10 +25061,10 @@
       <c r="D3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="122" t="s">
+      <c r="E3" s="124" t="s">
         <v>824</v>
       </c>
-      <c r="F3" s="122" t="s">
+      <c r="F3" s="124" t="s">
         <v>441</v>
       </c>
     </row>
@@ -25081,8 +25081,8 @@
       <c r="D4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -25207,10 +25207,10 @@
       <c r="D11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="122" t="s">
+      <c r="E11" s="124" t="s">
         <v>445</v>
       </c>
-      <c r="F11" s="122" t="s">
+      <c r="F11" s="124" t="s">
         <v>446</v>
       </c>
     </row>
@@ -25227,8 +25227,8 @@
       <c r="D12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
     </row>
     <row r="13" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
@@ -25243,8 +25243,8 @@
       <c r="D13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
     </row>
     <row r="14" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
@@ -26208,10 +26208,10 @@
       <c r="D64" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E64" s="122" t="s">
+      <c r="E64" s="124" t="s">
         <v>460</v>
       </c>
-      <c r="F64" s="122" t="s">
+      <c r="F64" s="124" t="s">
         <v>461</v>
       </c>
     </row>
@@ -26228,8 +26228,8 @@
       <c r="D65" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="122"/>
-      <c r="F65" s="122"/>
+      <c r="E65" s="124"/>
+      <c r="F65" s="124"/>
     </row>
     <row r="66" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A66" s="20" t="s">
@@ -26314,10 +26314,10 @@
       <c r="D70" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="122" t="s">
+      <c r="E70" s="124" t="s">
         <v>848</v>
       </c>
-      <c r="F70" s="122" t="s">
+      <c r="F70" s="124" t="s">
         <v>849</v>
       </c>
       <c r="G70" s="57"/>
@@ -26335,8 +26335,8 @@
       <c r="D71" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="122"/>
-      <c r="F71" s="122"/>
+      <c r="E71" s="124"/>
+      <c r="F71" s="124"/>
       <c r="G71" s="57"/>
     </row>
     <row r="72" spans="1:7" ht="78" x14ac:dyDescent="0.3">
@@ -27154,10 +27154,10 @@
       <c r="D114" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="127" t="s">
+      <c r="E114" s="128" t="s">
         <v>464</v>
       </c>
-      <c r="F114" s="119" t="s">
+      <c r="F114" s="117" t="s">
         <v>465</v>
       </c>
     </row>
@@ -27174,8 +27174,8 @@
       <c r="D115" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="127"/>
-      <c r="F115" s="119"/>
+      <c r="E115" s="128"/>
+      <c r="F115" s="117"/>
     </row>
     <row r="116" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="20" t="s">
@@ -27380,10 +27380,10 @@
       <c r="D126" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="119" t="s">
+      <c r="E126" s="117" t="s">
         <v>466</v>
       </c>
-      <c r="F126" s="120" t="s">
+      <c r="F126" s="118" t="s">
         <v>467</v>
       </c>
     </row>
@@ -27400,8 +27400,8 @@
       <c r="D127" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="119"/>
-      <c r="F127" s="121"/>
+      <c r="E127" s="117"/>
+      <c r="F127" s="119"/>
     </row>
     <row r="128" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A128" s="20" t="s">
@@ -27485,10 +27485,10 @@
       <c r="D132" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E132" s="119" t="s">
+      <c r="E132" s="117" t="s">
         <v>468</v>
       </c>
-      <c r="F132" s="119" t="s">
+      <c r="F132" s="117" t="s">
         <v>469</v>
       </c>
     </row>
@@ -27505,8 +27505,8 @@
       <c r="D133" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E133" s="119"/>
-      <c r="F133" s="119"/>
+      <c r="E133" s="117"/>
+      <c r="F133" s="117"/>
     </row>
     <row r="134" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A134" s="20" t="s">
@@ -27521,8 +27521,8 @@
       <c r="D134" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E134" s="119"/>
-      <c r="F134" s="119"/>
+      <c r="E134" s="117"/>
+      <c r="F134" s="117"/>
     </row>
     <row r="135" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A135" s="20" t="s">
@@ -27690,7 +27690,7 @@
       <c r="E143" s="25" t="s">
         <v>470</v>
       </c>
-      <c r="F143" s="122" t="s">
+      <c r="F143" s="124" t="s">
         <v>355</v>
       </c>
     </row>
@@ -27710,7 +27710,7 @@
       <c r="E144" s="25" t="s">
         <v>471</v>
       </c>
-      <c r="F144" s="122"/>
+      <c r="F144" s="124"/>
     </row>
     <row r="145" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A145" s="20" t="s">
@@ -27825,10 +27825,10 @@
       <c r="D150" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E150" s="120" t="s">
+      <c r="E150" s="118" t="s">
         <v>477</v>
       </c>
-      <c r="F150" s="120" t="s">
+      <c r="F150" s="118" t="s">
         <v>478</v>
       </c>
       <c r="G150" s="61"/>
@@ -27846,8 +27846,8 @@
       <c r="D151" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E151" s="121"/>
-      <c r="F151" s="121"/>
+      <c r="E151" s="119"/>
+      <c r="F151" s="119"/>
       <c r="G151" s="57"/>
     </row>
     <row r="152" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
@@ -27863,10 +27863,10 @@
       <c r="D152" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E152" s="128" t="s">
+      <c r="E152" s="127" t="s">
         <v>479</v>
       </c>
-      <c r="F152" s="128" t="s">
+      <c r="F152" s="127" t="s">
         <v>459</v>
       </c>
     </row>
@@ -27883,8 +27883,8 @@
       <c r="D153" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E153" s="128"/>
-      <c r="F153" s="128"/>
+      <c r="E153" s="127"/>
+      <c r="F153" s="127"/>
     </row>
     <row r="154" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A154" s="20" t="s">
@@ -28158,22 +28158,12 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="E132:E134"/>
-    <mergeCell ref="F132:F134"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
     <mergeCell ref="A102:F102"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A33:F33"/>
@@ -28187,12 +28177,22 @@
     <mergeCell ref="F70:F71"/>
     <mergeCell ref="A82:F82"/>
     <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="E132:E134"/>
+    <mergeCell ref="F132:F134"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="F150:F151"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F165" r:id="rId1" xr:uid="{50BFC8A5-C23A-4C91-A087-8CBD4CA04FE5}"/>
@@ -28205,8 +28205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28259,10 +28259,10 @@
       <c r="D3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="122" t="s">
+      <c r="E3" s="124" t="s">
         <v>950</v>
       </c>
-      <c r="F3" s="124" t="s">
+      <c r="F3" s="122" t="s">
         <v>480</v>
       </c>
     </row>
@@ -28279,8 +28279,8 @@
       <c r="D4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="122"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="123"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -28405,10 +28405,10 @@
       <c r="D11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="124" t="s">
+      <c r="E11" s="122" t="s">
         <v>483</v>
       </c>
-      <c r="F11" s="124" t="s">
+      <c r="F11" s="122" t="s">
         <v>484</v>
       </c>
     </row>
@@ -28425,8 +28425,8 @@
       <c r="D12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
     </row>
     <row r="13" spans="1:6" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
@@ -28441,8 +28441,8 @@
       <c r="D13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
     </row>
     <row r="14" spans="1:6" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
@@ -29507,10 +29507,10 @@
       <c r="D70" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="124" t="s">
+      <c r="E70" s="122" t="s">
         <v>492</v>
       </c>
-      <c r="F70" s="120" t="s">
+      <c r="F70" s="118" t="s">
         <v>493</v>
       </c>
     </row>
@@ -29527,7 +29527,7 @@
       <c r="D71" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="125"/>
+      <c r="E71" s="123"/>
       <c r="F71" s="129"/>
     </row>
     <row r="72" spans="1:6" ht="126" customHeight="1" x14ac:dyDescent="0.3">
@@ -30569,10 +30569,10 @@
       <c r="D126" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="119" t="s">
+      <c r="E126" s="117" t="s">
         <v>499</v>
       </c>
-      <c r="F126" s="120" t="s">
+      <c r="F126" s="118" t="s">
         <v>500</v>
       </c>
     </row>
@@ -30589,8 +30589,8 @@
       <c r="D127" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="119"/>
-      <c r="F127" s="121"/>
+      <c r="E127" s="117"/>
+      <c r="F127" s="119"/>
     </row>
     <row r="128" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A128" s="20" t="s">
@@ -30673,10 +30673,10 @@
       <c r="D132" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E132" s="119" t="s">
+      <c r="E132" s="117" t="s">
         <v>501</v>
       </c>
-      <c r="F132" s="120" t="s">
+      <c r="F132" s="118" t="s">
         <v>502</v>
       </c>
     </row>
@@ -30693,8 +30693,8 @@
       <c r="D133" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E133" s="119"/>
-      <c r="F133" s="121"/>
+      <c r="E133" s="117"/>
+      <c r="F133" s="119"/>
     </row>
     <row r="134" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A134" s="20" t="s">
@@ -31358,12 +31358,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="F132:F133"/>
     <mergeCell ref="A113:F113"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A33:F33"/>
@@ -31376,14 +31378,12 @@
     <mergeCell ref="A82:F82"/>
     <mergeCell ref="A91:F91"/>
     <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F165" r:id="rId1" xr:uid="{C4CD4C26-7F31-4CBA-9986-3239DD2DB99A}"/>
@@ -31600,10 +31600,10 @@
       <c r="D11" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="122" t="s">
+      <c r="E11" s="124" t="s">
         <v>954</v>
       </c>
-      <c r="F11" s="122" t="s">
+      <c r="F11" s="124" t="s">
         <v>904</v>
       </c>
     </row>
@@ -31620,8 +31620,8 @@
       <c r="D12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
     </row>
     <row r="13" spans="1:6" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
@@ -31766,10 +31766,10 @@
       <c r="D20" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="119" t="s">
+      <c r="E20" s="117" t="s">
         <v>752</v>
       </c>
-      <c r="F20" s="119" t="s">
+      <c r="F20" s="117" t="s">
         <v>753</v>
       </c>
     </row>
@@ -31786,8 +31786,8 @@
       <c r="D21" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
     </row>
     <row r="22" spans="1:6" ht="200.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
@@ -32450,10 +32450,10 @@
       <c r="D56" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="122" t="s">
+      <c r="E56" s="124" t="s">
         <v>759</v>
       </c>
-      <c r="F56" s="122" t="s">
+      <c r="F56" s="124" t="s">
         <v>760</v>
       </c>
     </row>
@@ -32470,8 +32470,8 @@
       <c r="D57" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="122"/>
-      <c r="F57" s="122"/>
+      <c r="E57" s="124"/>
+      <c r="F57" s="124"/>
     </row>
     <row r="58" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A58" s="20" t="s">
@@ -32706,10 +32706,10 @@
       <c r="D70" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="122" t="s">
+      <c r="E70" s="124" t="s">
         <v>814</v>
       </c>
-      <c r="F70" s="122" t="s">
+      <c r="F70" s="124" t="s">
         <v>882</v>
       </c>
     </row>
@@ -32726,8 +32726,8 @@
       <c r="D71" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="122"/>
-      <c r="F71" s="122"/>
+      <c r="E71" s="124"/>
+      <c r="F71" s="124"/>
     </row>
     <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="s">
@@ -32782,10 +32782,10 @@
       <c r="D74" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="119" t="s">
+      <c r="E74" s="117" t="s">
         <v>868</v>
       </c>
-      <c r="F74" s="119" t="s">
+      <c r="F74" s="117" t="s">
         <v>762</v>
       </c>
     </row>
@@ -32802,8 +32802,8 @@
       <c r="D75" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="119"/>
-      <c r="F75" s="119"/>
+      <c r="E75" s="117"/>
+      <c r="F75" s="117"/>
     </row>
     <row r="76" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A76" s="20" t="s">
@@ -33138,10 +33138,10 @@
       <c r="D93" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E93" s="120" t="s">
+      <c r="E93" s="118" t="s">
         <v>969</v>
       </c>
-      <c r="F93" s="120" t="s">
+      <c r="F93" s="118" t="s">
         <v>764</v>
       </c>
     </row>
@@ -33158,8 +33158,8 @@
       <c r="D94" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="121"/>
-      <c r="F94" s="121"/>
+      <c r="E94" s="119"/>
+      <c r="F94" s="119"/>
     </row>
     <row r="95" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A95" s="20" t="s">
@@ -33534,10 +33534,10 @@
       <c r="D114" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="119" t="s">
+      <c r="E114" s="117" t="s">
         <v>772</v>
       </c>
-      <c r="F114" s="119" t="s">
+      <c r="F114" s="117" t="s">
         <v>773</v>
       </c>
     </row>
@@ -33554,8 +33554,8 @@
       <c r="D115" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="119"/>
-      <c r="F115" s="119"/>
+      <c r="E115" s="117"/>
+      <c r="F115" s="117"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="20" t="s">
@@ -34099,7 +34099,7 @@
       <c r="E144" s="84" t="s">
         <v>785</v>
       </c>
-      <c r="F144" s="122" t="s">
+      <c r="F144" s="124" t="s">
         <v>33</v>
       </c>
     </row>
@@ -34119,7 +34119,7 @@
       <c r="E145" s="84" t="s">
         <v>786</v>
       </c>
-      <c r="F145" s="122"/>
+      <c r="F145" s="124"/>
     </row>
     <row r="146" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A146" s="20" t="s">
@@ -34547,15 +34547,19 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="F144:F145"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
     <mergeCell ref="E114:E115"/>
     <mergeCell ref="F114:F115"/>
     <mergeCell ref="A69:F69"/>
@@ -34569,19 +34573,15 @@
     <mergeCell ref="F93:F94"/>
     <mergeCell ref="A102:F102"/>
     <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="F144:F145"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -34796,10 +34796,10 @@
       <c r="D11" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="124" t="s">
+      <c r="E11" s="122" t="s">
         <v>706</v>
       </c>
-      <c r="F11" s="122" t="s">
+      <c r="F11" s="124" t="s">
         <v>707</v>
       </c>
     </row>
@@ -34816,8 +34816,8 @@
       <c r="D12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="125"/>
-      <c r="F12" s="122"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="124"/>
     </row>
     <row r="13" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
@@ -34962,10 +34962,10 @@
       <c r="D20" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="119" t="s">
+      <c r="E20" s="117" t="s">
         <v>805</v>
       </c>
-      <c r="F20" s="119" t="s">
+      <c r="F20" s="117" t="s">
         <v>836</v>
       </c>
     </row>
@@ -34982,8 +34982,8 @@
       <c r="D21" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
     </row>
     <row r="22" spans="1:6" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
@@ -35646,10 +35646,10 @@
       <c r="D56" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="124" t="s">
+      <c r="E56" s="122" t="s">
         <v>803</v>
       </c>
-      <c r="F56" s="124" t="s">
+      <c r="F56" s="122" t="s">
         <v>804</v>
       </c>
     </row>
@@ -35666,8 +35666,8 @@
       <c r="D57" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="125"/>
-      <c r="F57" s="125"/>
+      <c r="E57" s="123"/>
+      <c r="F57" s="123"/>
     </row>
     <row r="58" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A58" s="20" t="s">
@@ -35902,10 +35902,10 @@
       <c r="D70" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="124" t="s">
+      <c r="E70" s="122" t="s">
         <v>718</v>
       </c>
-      <c r="F70" s="124" t="s">
+      <c r="F70" s="122" t="s">
         <v>719</v>
       </c>
     </row>
@@ -35922,8 +35922,8 @@
       <c r="D71" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="125"/>
-      <c r="F71" s="125"/>
+      <c r="E71" s="123"/>
+      <c r="F71" s="123"/>
     </row>
     <row r="72" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="s">
@@ -35978,10 +35978,10 @@
       <c r="D74" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="120" t="s">
+      <c r="E74" s="118" t="s">
         <v>721</v>
       </c>
-      <c r="F74" s="120" t="s">
+      <c r="F74" s="118" t="s">
         <v>720</v>
       </c>
     </row>
@@ -35998,8 +35998,8 @@
       <c r="D75" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="121"/>
-      <c r="F75" s="121"/>
+      <c r="E75" s="119"/>
+      <c r="F75" s="119"/>
     </row>
     <row r="76" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A76" s="20" t="s">
@@ -36734,10 +36734,10 @@
       <c r="D114" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="119" t="s">
+      <c r="E114" s="117" t="s">
         <v>729</v>
       </c>
-      <c r="F114" s="120" t="s">
+      <c r="F114" s="118" t="s">
         <v>730</v>
       </c>
     </row>
@@ -36754,8 +36754,8 @@
       <c r="D115" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="119"/>
-      <c r="F115" s="121"/>
+      <c r="E115" s="117"/>
+      <c r="F115" s="119"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="20" t="s">
@@ -37749,6 +37749,28 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="E74:E75"/>
     <mergeCell ref="F152:F153"/>
     <mergeCell ref="A155:F155"/>
     <mergeCell ref="F114:F115"/>
@@ -37759,28 +37781,6 @@
     <mergeCell ref="E114:E115"/>
     <mergeCell ref="E126:E127"/>
     <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -37844,10 +37844,10 @@
       <c r="D3" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="122" t="s">
+      <c r="E3" s="124" t="s">
         <v>952</v>
       </c>
-      <c r="F3" s="124" t="s">
+      <c r="F3" s="122" t="s">
         <v>953</v>
       </c>
     </row>
@@ -37864,8 +37864,8 @@
       <c r="D4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="122"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="123"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -37993,7 +37993,7 @@
       <c r="E11" s="132" t="s">
         <v>1111</v>
       </c>
-      <c r="F11" s="124" t="s">
+      <c r="F11" s="122" t="s">
         <v>658</v>
       </c>
     </row>
@@ -38011,7 +38011,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="133"/>
-      <c r="F12" s="126"/>
+      <c r="F12" s="125"/>
     </row>
     <row r="13" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
@@ -38027,7 +38027,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="134"/>
-      <c r="F13" s="125"/>
+      <c r="F13" s="123"/>
     </row>
     <row r="14" spans="1:6" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
@@ -38152,10 +38152,10 @@
       <c r="D20" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="122" t="s">
+      <c r="E20" s="124" t="s">
         <v>956</v>
       </c>
-      <c r="F20" s="124" t="s">
+      <c r="F20" s="122" t="s">
         <v>957</v>
       </c>
     </row>
@@ -38172,8 +38172,8 @@
       <c r="D21" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="122"/>
-      <c r="F21" s="125"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="123"/>
     </row>
     <row r="22" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
@@ -38986,10 +38986,10 @@
       <c r="D64" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E64" s="124" t="s">
+      <c r="E64" s="122" t="s">
         <v>669</v>
       </c>
-      <c r="F64" s="124" t="s">
+      <c r="F64" s="122" t="s">
         <v>670</v>
       </c>
     </row>
@@ -39006,8 +39006,8 @@
       <c r="D65" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E65" s="125"/>
-      <c r="F65" s="125"/>
+      <c r="E65" s="123"/>
+      <c r="F65" s="123"/>
     </row>
     <row r="66" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A66" s="20" t="s">
@@ -39092,10 +39092,10 @@
       <c r="D70" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="122" t="s">
+      <c r="E70" s="124" t="s">
         <v>962</v>
       </c>
-      <c r="F70" s="124" t="s">
+      <c r="F70" s="122" t="s">
         <v>963</v>
       </c>
     </row>
@@ -39112,8 +39112,8 @@
       <c r="D71" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="122"/>
-      <c r="F71" s="125"/>
+      <c r="E71" s="124"/>
+      <c r="F71" s="123"/>
     </row>
     <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="s">
@@ -39168,10 +39168,10 @@
       <c r="D74" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="124" t="s">
+      <c r="E74" s="122" t="s">
         <v>671</v>
       </c>
-      <c r="F74" s="126" t="s">
+      <c r="F74" s="125" t="s">
         <v>193</v>
       </c>
     </row>
@@ -39188,8 +39188,8 @@
       <c r="D75" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="125"/>
-      <c r="F75" s="125"/>
+      <c r="E75" s="123"/>
+      <c r="F75" s="123"/>
     </row>
     <row r="76" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A76" s="20" t="s">
@@ -39924,10 +39924,10 @@
       <c r="D114" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="124" t="s">
+      <c r="E114" s="122" t="s">
         <v>679</v>
       </c>
-      <c r="F114" s="124" t="s">
+      <c r="F114" s="122" t="s">
         <v>680</v>
       </c>
     </row>
@@ -39944,8 +39944,8 @@
       <c r="D115" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="125"/>
-      <c r="F115" s="125"/>
+      <c r="E115" s="123"/>
+      <c r="F115" s="123"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="20" t="s">
@@ -40941,22 +40941,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="F20:F21"/>
     <mergeCell ref="A155:F155"/>
     <mergeCell ref="E64:E65"/>
     <mergeCell ref="E70:E71"/>
@@ -40973,6 +40957,22 @@
     <mergeCell ref="F126:F127"/>
     <mergeCell ref="A131:F131"/>
     <mergeCell ref="A142:F142"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="A82:F82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -41036,10 +41036,10 @@
       <c r="D3" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="124" t="s">
+      <c r="E3" s="122" t="s">
         <v>511</v>
       </c>
-      <c r="F3" s="124" t="s">
+      <c r="F3" s="122" t="s">
         <v>512</v>
       </c>
     </row>
@@ -41056,8 +41056,8 @@
       <c r="D4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
@@ -41182,10 +41182,10 @@
       <c r="D11" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="124" t="s">
+      <c r="E11" s="122" t="s">
         <v>832</v>
       </c>
-      <c r="F11" s="124" t="s">
+      <c r="F11" s="122" t="s">
         <v>520</v>
       </c>
     </row>
@@ -41202,8 +41202,8 @@
       <c r="D12" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
     </row>
     <row r="13" spans="1:6" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
@@ -41218,8 +41218,8 @@
       <c r="D13" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
     </row>
     <row r="14" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
@@ -41234,8 +41234,8 @@
       <c r="D14" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
     </row>
     <row r="15" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
@@ -41340,10 +41340,10 @@
       <c r="D20" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="124" t="s">
+      <c r="E20" s="122" t="s">
         <v>837</v>
       </c>
-      <c r="F20" s="124" t="s">
+      <c r="F20" s="122" t="s">
         <v>521</v>
       </c>
     </row>
@@ -41360,8 +41360,8 @@
       <c r="D21" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="125"/>
-      <c r="F21" s="125"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
     </row>
     <row r="22" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
@@ -42284,10 +42284,10 @@
       <c r="D70" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="124" t="s">
+      <c r="E70" s="122" t="s">
         <v>528</v>
       </c>
-      <c r="F70" s="124" t="s">
+      <c r="F70" s="122" t="s">
         <v>529</v>
       </c>
     </row>
@@ -42304,8 +42304,8 @@
       <c r="D71" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="125"/>
-      <c r="F71" s="125"/>
+      <c r="E71" s="123"/>
+      <c r="F71" s="123"/>
     </row>
     <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="s">
@@ -42360,10 +42360,10 @@
       <c r="D74" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="119" t="s">
+      <c r="E74" s="117" t="s">
         <v>530</v>
       </c>
-      <c r="F74" s="119" t="s">
+      <c r="F74" s="117" t="s">
         <v>530</v>
       </c>
     </row>
@@ -42380,8 +42380,8 @@
       <c r="D75" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="119"/>
-      <c r="F75" s="119"/>
+      <c r="E75" s="117"/>
+      <c r="F75" s="117"/>
     </row>
     <row r="76" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A76" s="20" t="s">
@@ -42716,10 +42716,10 @@
       <c r="D93" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E93" s="124" t="s">
+      <c r="E93" s="122" t="s">
         <v>970</v>
       </c>
-      <c r="F93" s="124" t="s">
+      <c r="F93" s="122" t="s">
         <v>526</v>
       </c>
     </row>
@@ -42736,8 +42736,8 @@
       <c r="D94" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="125"/>
-      <c r="F94" s="125"/>
+      <c r="E94" s="123"/>
+      <c r="F94" s="123"/>
     </row>
     <row r="95" spans="1:6" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="20" t="s">
@@ -43112,10 +43112,10 @@
       <c r="D114" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="122" t="s">
+      <c r="E114" s="124" t="s">
         <v>542</v>
       </c>
-      <c r="F114" s="124" t="s">
+      <c r="F114" s="122" t="s">
         <v>543</v>
       </c>
     </row>
@@ -43132,8 +43132,8 @@
       <c r="D115" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="122"/>
-      <c r="F115" s="125"/>
+      <c r="E115" s="124"/>
+      <c r="F115" s="123"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="20" t="s">
@@ -44129,6 +44129,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A102:F102"/>
     <mergeCell ref="A54:F54"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="E3:E4"/>
@@ -44141,26 +44161,6 @@
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A131:F131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
